--- a/01-Sessions/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/FavoriteColors.xlsx
+++ b/01-Sessions/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/FavoriteColors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriencaudron/BOOTCAMP/UCB-VIRT-DATA-PT-11-2023-U-LOLC/01-Sessions/01-Excel/2/Activities/03-Ins_ColorCounter/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46108015-2369-D048-8A0C-F870D2F0C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC35A65-A91B-AF47-81BE-36799F16AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Colors">'Favorite Colors'!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Favorite Color</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Above Five?</t>
-  </si>
-  <si>
-    <t>All is Good (Mostly)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +545,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,43 +580,43 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Blue</v>
+        <v>Orange</v>
       </c>
       <c r="C2">
         <f ca="1">COUNTIF(Colors,"Red")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f ca="1">COUNTIF(Colors,"Blue")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f ca="1">COUNTIF(Colors,"Yellow")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <f ca="1">COUNTIF(Colors,"Purple")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f ca="1">COUNTIF(Colors,"Orange")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f ca="1">COUNTIF(Colors,"Green")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f t="shared" ref="A3:A30" ca="1" si="0">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Purple</v>
+        <v>Orange</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,6),"Red","Blue","Yellow","Green","Purple","Orange")</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -639,14 +636,12 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
+        <v>Orange</v>
       </c>
       <c r="C5" t="b">
         <f ca="1">IF(C2&gt;5,TRUE,FALSE)</f>
@@ -654,15 +649,15 @@
       </c>
       <c r="D5" t="b">
         <f t="shared" ref="D5:H5" ca="1" si="1">IF(D2&gt;5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f ca="1">IF(E2&gt;5,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="b">
+      <c r="F5" t="b">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
       <c r="G5" t="b">
         <f t="shared" ca="1" si="1"/>
@@ -670,11 +665,7 @@
       </c>
       <c r="H5" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <f ca="1">IF(AND(H5,NOT(C5)), TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -686,31 +677,31 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yellow</v>
+        <v>Purple</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -734,25 +725,25 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -764,67 +755,67 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Green</v>
+        <v>Purple</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Purple</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
+        <v>Purple</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
+        <v>Yellow</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Orange</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
   </sheetData>
